--- a/storage/template/invoice.xlsx
+++ b/storage/template/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/Projects/Cryptel/Boff3/boff3/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEBAE0-86EC-6E4A-A154-113869AAA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98262AF-B461-744B-9C02-2F0D6D989925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1500" windowWidth="25600" windowHeight="15500" xr2:uid="{D22D7345-4540-1A49-A3EF-E3F2998DA283}"/>
   </bookViews>
@@ -457,6 +457,42 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -469,9 +505,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -482,39 +515,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,8 +911,8 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -930,29 +930,29 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="32">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="4" spans="2:10" ht="26">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:10">
       <c r="H5" s="13" t="s">
@@ -1006,33 +1006,33 @@
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="12" customHeight="1"/>
     <row r="15" spans="2:10" ht="23">
       <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1053,11 +1053,11 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
@@ -1066,9 +1066,9 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -1077,9 +1077,9 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -1088,11 +1088,11 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -1115,39 +1115,39 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="1" t="s">
@@ -1161,6 +1161,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="H5:J5"/>
@@ -1171,16 +1181,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
